--- a/Final Data Ohio/Ohio companies_copy.xlsx
+++ b/Final Data Ohio/Ohio companies_copy.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/6e65643cfa874844/01 Frankfurt School/Data Analytics in Business/HousingProject/Final Data/Ohio/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/6e65643cfa874844/01 Frankfurt School/Data Analytics in Business/HousingProject/Final Data Ohio/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <xr:revisionPtr revIDLastSave="3" documentId="13_ncr:1_{6B89C98F-FACD-C446-9EEC-E6524496BAFC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{535F6C28-9616-4D09-8A0C-6E86B281E8B8}"/>
   <bookViews>
-    <workbookView xWindow="29070" yWindow="2490" windowWidth="22830" windowHeight="15315" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="29670" yWindow="2895" windowWidth="22830" windowHeight="15315" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -540,7 +540,7 @@
   <dimension ref="A1:L26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H3" sqref="H3"/>
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/Final Data Ohio/Ohio companies_copy.xlsx
+++ b/Final Data Ohio/Ohio companies_copy.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25629"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11011"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/6e65643cfa874844/01 Frankfurt School/Data Analytics in Business/HousingProject/Final Data Ohio/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/pedrosuarez/Desktop/FSDAB/Final Data Ohio/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="3" documentId="13_ncr:1_{6B89C98F-FACD-C446-9EEC-E6524496BAFC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{535F6C28-9616-4D09-8A0C-6E86B281E8B8}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F82FA938-EEE9-F740-940E-9BADC88E57F8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="29670" yWindow="2895" windowWidth="22830" windowHeight="15315" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="33600" windowHeight="21000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -224,7 +224,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -234,6 +234,9 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Good" xfId="1" builtinId="26"/>
@@ -540,19 +543,19 @@
   <dimension ref="A1:L26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+      <selection activeCell="Q11" sqref="Q11:Q42"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="3" max="3" width="33.28515625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.5703125" customWidth="1"/>
-    <col min="10" max="10" width="13.140625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="12.7109375" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="23.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="33.33203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.5" customWidth="1"/>
+    <col min="10" max="10" width="13.1640625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="12.6640625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="23.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -578,7 +581,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A2" s="1">
         <v>150</v>
       </c>
@@ -596,7 +599,7 @@
       </c>
       <c r="H2" s="4"/>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A3" s="1">
         <v>173</v>
       </c>
@@ -614,7 +617,7 @@
       </c>
       <c r="H3" s="4"/>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A4" s="1">
         <v>497</v>
       </c>
@@ -632,7 +635,7 @@
       </c>
       <c r="H4" s="4"/>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A5" s="1">
         <v>179</v>
       </c>
@@ -650,7 +653,7 @@
       </c>
       <c r="H5" s="4"/>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A6" s="1">
         <v>152</v>
       </c>
@@ -668,7 +671,7 @@
       </c>
       <c r="H6" s="4"/>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A7" s="1">
         <v>174</v>
       </c>
@@ -686,7 +689,7 @@
       </c>
       <c r="H7" s="4"/>
     </row>
-    <row r="8" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:12" ht="16" x14ac:dyDescent="0.2">
       <c r="A8" s="1">
         <v>75</v>
       </c>
@@ -718,7 +721,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="9" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:12" ht="16" x14ac:dyDescent="0.2">
       <c r="A9" s="1">
         <v>151</v>
       </c>
@@ -750,7 +753,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A10" s="1">
         <v>458</v>
       </c>
@@ -768,7 +771,7 @@
       </c>
       <c r="H10" s="4"/>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A11" s="1">
         <v>457</v>
       </c>
@@ -785,7 +788,7 @@
         <v>14156</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A12" s="1">
         <v>153</v>
       </c>
@@ -802,7 +805,7 @@
         <v>12574</v>
       </c>
     </row>
-    <row r="13" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:12" ht="16" x14ac:dyDescent="0.2">
       <c r="A13" s="1">
         <v>73</v>
       </c>
@@ -818,7 +821,7 @@
       <c r="E13">
         <v>11856</v>
       </c>
-      <c r="H13" s="2">
+      <c r="H13" s="5">
         <v>172</v>
       </c>
       <c r="I13">
@@ -834,7 +837,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="14" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:12" ht="16" x14ac:dyDescent="0.2">
       <c r="A14" s="1">
         <v>74</v>
       </c>
@@ -850,7 +853,7 @@
       <c r="E14">
         <v>11361</v>
       </c>
-      <c r="H14" s="2">
+      <c r="H14" s="5">
         <v>269</v>
       </c>
       <c r="I14">
@@ -866,7 +869,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A15" s="1">
         <v>474</v>
       </c>
@@ -883,7 +886,7 @@
         <v>7811</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A16" s="1">
         <v>176</v>
       </c>
@@ -900,7 +903,7 @@
         <v>6889</v>
       </c>
     </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A17" s="1">
         <v>489</v>
       </c>
@@ -917,7 +920,7 @@
         <v>6702</v>
       </c>
     </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A18" s="1">
         <v>172</v>
       </c>
@@ -934,7 +937,7 @@
         <v>6498</v>
       </c>
     </row>
-    <row r="19" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:12" ht="16" x14ac:dyDescent="0.2">
       <c r="A19" s="1">
         <v>41</v>
       </c>
@@ -950,7 +953,7 @@
       <c r="E19">
         <v>5883</v>
       </c>
-      <c r="H19" s="2">
+      <c r="H19" s="5">
         <v>72</v>
       </c>
       <c r="I19">
@@ -966,7 +969,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A20" s="1">
         <v>269</v>
       </c>
@@ -983,7 +986,7 @@
         <v>5826</v>
       </c>
     </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A21" s="1">
         <v>270</v>
       </c>
@@ -1000,7 +1003,7 @@
         <v>5677</v>
       </c>
     </row>
-    <row r="22" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:12" ht="16" x14ac:dyDescent="0.2">
       <c r="A22" s="1">
         <v>76</v>
       </c>
@@ -1016,7 +1019,7 @@
       <c r="E22">
         <v>5511</v>
       </c>
-      <c r="H22" s="2">
+      <c r="H22" s="5">
         <v>474</v>
       </c>
       <c r="I22">
@@ -1032,7 +1035,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:12" ht="16" x14ac:dyDescent="0.2">
       <c r="A23" s="1">
         <v>40</v>
       </c>
@@ -1048,7 +1051,7 @@
       <c r="E23">
         <v>5449</v>
       </c>
-      <c r="H23" s="2">
+      <c r="H23" s="5">
         <v>40</v>
       </c>
       <c r="I23">
@@ -1064,7 +1067,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="24" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:12" ht="16" x14ac:dyDescent="0.2">
       <c r="A24" s="1">
         <v>72</v>
       </c>
@@ -1080,7 +1083,7 @@
       <c r="E24">
         <v>5422</v>
       </c>
-      <c r="H24" s="2">
+      <c r="H24" s="5">
         <v>149</v>
       </c>
       <c r="I24">
@@ -1096,7 +1099,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A25" s="1">
         <v>175</v>
       </c>
@@ -1113,7 +1116,7 @@
         <v>5398</v>
       </c>
     </row>
-    <row r="26" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:12" ht="16" x14ac:dyDescent="0.2">
       <c r="A26" s="1">
         <v>149</v>
       </c>
@@ -1129,7 +1132,7 @@
       <c r="E26">
         <v>5200</v>
       </c>
-      <c r="H26" s="2">
+      <c r="H26" s="5">
         <v>489</v>
       </c>
       <c r="I26">
@@ -1148,7 +1151,7 @@
   </sheetData>
   <autoFilter ref="A1:L1" xr:uid="{00000000-0001-0000-0000-000000000000}">
     <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:L26">
-      <sortCondition ref="B1"/>
+      <sortCondition ref="B1:B26"/>
     </sortState>
   </autoFilter>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
